--- a/BC4400F22/Lecture23/pres_order.xlsx
+++ b/BC4400F22/Lecture23/pres_order.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny547-my.sharepoint.com/personal/dailoae_gradcenter_cuny_edu/Documents/Documents/Work/Teaching/_BK_College/_Fall 2022/_Project Presentations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400F22/Lecture23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{857A8820-B2E9-4797-8CAF-BED13498BCEF}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114D1C46-06A5-451A-85D8-706E5536B04D}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="3" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Roll Dice" sheetId="4" r:id="rId1"/>
     <sheet name="Calc Order" sheetId="1" r:id="rId2"/>
     <sheet name="Final Order" sheetId="3" r:id="rId3"/>
-    <sheet name="Shedule" sheetId="2" r:id="rId4"/>
+    <sheet name="Schedule" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Final Order'!$A$1:$E$13</definedName>
@@ -296,10 +296,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -621,15 +617,15 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <f ca="1">B2+C2</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -700,11 +696,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <f ca="1">RAND()*1000</f>
-        <v>438.11368689122509</v>
+        <v>810.82075187649605</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">COUNT($A$2:$A$13) -RANK(A2,$A$2:$A$13)+1</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>D2&amp;" "&amp;E2</f>
@@ -720,11 +716,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A13" ca="1" si="0">RAND()*1000</f>
-        <v>762.74862447603118</v>
+        <v>790.51038513409992</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B12" ca="1" si="1">COUNT($A$2:$A$13) -RANK(A3,$A$2:$A$13)+1</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C13" si="2">D3&amp;" "&amp;E3</f>
@@ -740,11 +736,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>371.10137992876366</v>
+        <v>732.09568400962871</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="2"/>
@@ -760,11 +756,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>880.99891638565111</v>
+        <v>411.41721820330469</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="2"/>
@@ -780,11 +776,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>721.2625167019587</v>
+        <v>108.86611741464381</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="2"/>
@@ -800,7 +796,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>958.95671517824644</v>
+        <v>853.22787258653614</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -820,11 +816,11 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>565.12449236597638</v>
+        <v>98.001382805266161</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -840,11 +836,11 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>214.72122850054143</v>
+        <v>822.39999694838491</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="2"/>
@@ -860,11 +856,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>295.3915212393585</v>
+        <v>9.2566826664101107</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="2"/>
@@ -880,11 +876,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>754.16819152433425</v>
+        <v>673.61589229970866</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -900,11 +896,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8874922403233629</v>
+        <v>167.63114871571972</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="2"/>
@@ -920,11 +916,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28.862046879485682</v>
+        <v>351.17277374405245</v>
       </c>
       <c r="B13" s="3">
         <f ca="1">COUNT($A$2:$A$13) -RANK(A13,$A$2:$A$13)+1</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -1206,7 +1202,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1214,7 +1210,8 @@
     <col min="1" max="1" width="3.84375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="26.53515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.3046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">

--- a/BC4400F22/Lecture23/pres_order.xlsx
+++ b/BC4400F22/Lecture23/pres_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400F22/Lecture23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{114D1C46-06A5-451A-85D8-706E5536B04D}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB291B5-6194-4940-85E1-C2D5095015BD}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="3" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Roll Dice" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>Adil</t>
   </si>
@@ -189,6 +189,12 @@
   </si>
   <si>
     <t>Selection</t>
+  </si>
+  <si>
+    <t>Presentation title</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -278,8 +284,19 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -296,6 +313,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -617,40 +638,40 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <f ca="1">B2+C2</f>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7">
         <v>6</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>12</v>
       </c>
     </row>
@@ -696,11 +717,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <f ca="1">RAND()*1000</f>
-        <v>810.82075187649605</v>
+        <v>113.82435256493251</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">COUNT($A$2:$A$13) -RANK(A2,$A$2:$A$13)+1</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>D2&amp;" "&amp;E2</f>
@@ -716,11 +737,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A13" ca="1" si="0">RAND()*1000</f>
-        <v>790.51038513409992</v>
+        <v>218.36335093863934</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B12" ca="1" si="1">COUNT($A$2:$A$13) -RANK(A3,$A$2:$A$13)+1</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C13" si="2">D3&amp;" "&amp;E3</f>
@@ -736,11 +757,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>732.09568400962871</v>
+        <v>245.31421360425153</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="2"/>
@@ -756,11 +777,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>411.41721820330469</v>
+        <v>57.190665415218668</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="2"/>
@@ -776,11 +797,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108.86611741464381</v>
+        <v>525.8919156687939</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="2"/>
@@ -796,11 +817,11 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>853.22787258653614</v>
+        <v>829.23614683273843</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -816,11 +837,11 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>98.001382805266161</v>
+        <v>315.59206554369621</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -836,11 +857,11 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>822.39999694838491</v>
+        <v>827.98065965874548</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="2"/>
@@ -856,11 +877,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2566826664101107</v>
+        <v>196.16093417668944</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3" t="str">
         <f t="shared" si="2"/>
@@ -876,11 +897,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>673.61589229970866</v>
+        <v>14.300447107647219</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -896,11 +917,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>167.63114871571972</v>
+        <v>815.87728691940629</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="2"/>
@@ -916,11 +937,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>351.17277374405245</v>
+        <v>993.99440851586246</v>
       </c>
       <c r="B13" s="3">
         <f ca="1">COUNT($A$2:$A$13) -RANK(A13,$A$2:$A$13)+1</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -950,9 +971,7 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1199,22 +1218,22 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.84375" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="1" max="1" width="10.3046875" customWidth="1"/>
+    <col min="2" max="2" width="12.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.53515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.3046875" customWidth="1"/>
+    <col min="4" max="4" width="19.765625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="30.3046875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -1224,11 +1243,14 @@
       <c r="C1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E1" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1238,12 +1260,15 @@
       <c r="C2" s="4">
         <v>44900</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="10" t="str">
         <f>VLOOKUP(A2,'Final Order'!B:C,2,0)</f>
         <v>Minha Khundkar</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E2" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1253,12 +1278,15 @@
       <c r="C3" s="4">
         <v>44900</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="10" t="str">
         <f>VLOOKUP(A3,'Final Order'!B:C,2,0)</f>
         <v>Lili Chen</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E3" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1268,12 +1296,15 @@
       <c r="C4" s="4">
         <v>44900</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="10" t="str">
         <f>VLOOKUP(A4,'Final Order'!B:C,2,0)</f>
         <v>Saul Loor</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E4" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1283,12 +1314,15 @@
       <c r="C5" s="4">
         <v>44900</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="10" t="str">
         <f>VLOOKUP(A5,'Final Order'!B:C,2,0)</f>
         <v>Michael Chattah</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E5" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1298,12 +1332,15 @@
       <c r="C6" s="4">
         <v>44902</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="10" t="str">
         <f>VLOOKUP(A6,'Final Order'!B:C,2,0)</f>
         <v>Abena Mensah</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E6" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1313,12 +1350,15 @@
       <c r="C7" s="4">
         <v>44902</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="10" t="str">
         <f>VLOOKUP(A7,'Final Order'!B:C,2,0)</f>
         <v>Adil Ahmed</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E7" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1328,12 +1368,15 @@
       <c r="C8" s="4">
         <v>44902</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="10" t="str">
         <f>VLOOKUP(A8,'Final Order'!B:C,2,0)</f>
         <v>Udhay Kahlon</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E8" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1343,12 +1386,15 @@
       <c r="C9" s="4">
         <v>44902</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="10" t="str">
         <f>VLOOKUP(A9,'Final Order'!B:C,2,0)</f>
         <v>Norris Ellis</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E9" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1358,12 +1404,15 @@
       <c r="C10" s="4">
         <v>44907</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="10" t="str">
         <f>VLOOKUP(A10,'Final Order'!B:C,2,0)</f>
         <v>Joshua Koegel</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E10" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1373,12 +1422,15 @@
       <c r="C11" s="4">
         <v>44907</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="10" t="str">
         <f>VLOOKUP(A11,'Final Order'!B:C,2,0)</f>
         <v>Jean Renel Saint Jour</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1388,12 +1440,15 @@
       <c r="C12" s="4">
         <v>44907</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="10" t="str">
         <f>VLOOKUP(A12,'Final Order'!B:C,2,0)</f>
         <v>Seelian Lee</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E12" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1403,9 +1458,12 @@
       <c r="C13" s="4">
         <v>44908</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="10" t="str">
         <f>VLOOKUP(A13,'Final Order'!B:C,2,0)</f>
         <v>Wen Xuan Wu</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/BC4400F22/Lecture23/pres_order.xlsx
+++ b/BC4400F22/Lecture23/pres_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400F22/Lecture23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5BB291B5-6194-4940-85E1-C2D5095015BD}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A75A1ADF-70FA-4E62-AEB7-0AEFC0C5853F}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="3" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Roll Dice" sheetId="4" r:id="rId1"/>
@@ -642,11 +642,11 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f ca="1">B2+C2</f>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -717,11 +717,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <f ca="1">RAND()*1000</f>
-        <v>113.82435256493251</v>
+        <v>503.57960916066122</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">COUNT($A$2:$A$13) -RANK(A2,$A$2:$A$13)+1</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>D2&amp;" "&amp;E2</f>
@@ -737,11 +737,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A13" ca="1" si="0">RAND()*1000</f>
-        <v>218.36335093863934</v>
+        <v>10.453353431338019</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B12" ca="1" si="1">COUNT($A$2:$A$13) -RANK(A3,$A$2:$A$13)+1</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C13" si="2">D3&amp;" "&amp;E3</f>
@@ -757,11 +757,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>245.31421360425153</v>
+        <v>69.223480972902323</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="2"/>
@@ -777,11 +777,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>57.190665415218668</v>
+        <v>892.36078602270698</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="2"/>
@@ -797,11 +797,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>525.8919156687939</v>
+        <v>843.65831532731056</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="2"/>
@@ -817,11 +817,11 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>829.23614683273843</v>
+        <v>799.21795888223141</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -837,11 +837,11 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>315.59206554369621</v>
+        <v>465.94663300461082</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -857,11 +857,11 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>827.98065965874548</v>
+        <v>313.72594614094373</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="str">
         <f t="shared" si="2"/>
@@ -877,7 +877,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>196.16093417668944</v>
+        <v>228.99057429938296</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -897,11 +897,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.300447107647219</v>
+        <v>773.16847235361615</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -917,11 +917,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>815.87728691940629</v>
+        <v>537.52659482495653</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="2"/>
@@ -937,11 +937,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>993.99440851586246</v>
+        <v>117.30413974413656</v>
       </c>
       <c r="B13" s="3">
         <f ca="1">COUNT($A$2:$A$13) -RANK(A13,$A$2:$A$13)+1</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -971,7 +971,7 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1220,8 +1220,8 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1456,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="4">
-        <v>44908</v>
+        <v>44907</v>
       </c>
       <c r="D13" s="10" t="str">
         <f>VLOOKUP(A13,'Final Order'!B:C,2,0)</f>

--- a/BC4400F22/Lecture23/pres_order.xlsx
+++ b/BC4400F22/Lecture23/pres_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400F22/Lecture23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A75A1ADF-70FA-4E62-AEB7-0AEFC0C5853F}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B6D7930D-092D-481D-AB95-5303C857BEF8}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="3" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="2" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Roll Dice" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>Adil</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Die 1</t>
+  </si>
+  <si>
+    <t>Die 2</t>
   </si>
 </sst>
 </file>
@@ -618,18 +624,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9DCC31-A773-452B-B78B-8DC4B741D10A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
@@ -638,15 +642,15 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <f ca="1">B2+C2</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -717,11 +721,11 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <f ca="1">RAND()*1000</f>
-        <v>503.57960916066122</v>
+        <v>988.06745062865514</v>
       </c>
       <c r="B2" s="3">
         <f ca="1">COUNT($A$2:$A$13) -RANK(A2,$A$2:$A$13)+1</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="str">
         <f>D2&amp;" "&amp;E2</f>
@@ -737,11 +741,11 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A13" ca="1" si="0">RAND()*1000</f>
-        <v>10.453353431338019</v>
+        <v>514.94455983363366</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B12" ca="1" si="1">COUNT($A$2:$A$13) -RANK(A3,$A$2:$A$13)+1</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="str">
         <f t="shared" ref="C3:C13" si="2">D3&amp;" "&amp;E3</f>
@@ -757,11 +761,11 @@
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>69.223480972902323</v>
+        <v>911.12543655864636</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="str">
         <f t="shared" si="2"/>
@@ -777,11 +781,11 @@
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>892.36078602270698</v>
+        <v>967.04441317579574</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="2"/>
@@ -797,11 +801,11 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>843.65831532731056</v>
+        <v>667.93297732370957</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="str">
         <f t="shared" si="2"/>
@@ -817,11 +821,11 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>799.21795888223141</v>
+        <v>158.55643329239965</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="str">
         <f t="shared" si="2"/>
@@ -837,11 +841,11 @@
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>465.94663300461082</v>
+        <v>20.008637099573345</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3" t="str">
         <f t="shared" si="2"/>
@@ -857,7 +861,7 @@
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>313.72594614094373</v>
+        <v>278.30105667120074</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -877,7 +881,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>228.99057429938296</v>
+        <v>213.55504024027894</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -897,11 +901,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>773.16847235361615</v>
+        <v>551.46880090944649</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="str">
         <f t="shared" si="2"/>
@@ -917,11 +921,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>537.52659482495653</v>
+        <v>68.004094056082536</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3" t="str">
         <f t="shared" si="2"/>
@@ -937,11 +941,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117.30413974413656</v>
+        <v>300.85730198494298</v>
       </c>
       <c r="B13" s="3">
         <f ca="1">COUNT($A$2:$A$13) -RANK(A13,$A$2:$A$13)+1</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3" t="str">
         <f t="shared" si="2"/>
@@ -971,7 +975,7 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1220,7 +1224,7 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/BC4400F22/Lecture23/pres_order.xlsx
+++ b/BC4400F22/Lecture23/pres_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400F22/Lecture23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8015000-3194-4F9A-BE8D-B33DA9E7F0B1}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{A255273C-DC4E-40DA-ABF5-1DABD99E0180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84FFF223-B53B-4639-B1D3-F2867BC8AA30}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="3" xr2:uid="{E32C007D-52D1-4083-8A17-F438002DD1B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Roll Dice" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
   <si>
     <t>Michael</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Dice 1</t>
-  </si>
-  <si>
-    <t>Dice 2</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
   </si>
   <si>
     <t>Day Pres. Slot</t>
-  </si>
-  <si>
-    <t>Selection</t>
   </si>
   <si>
     <t>Presentation title</t>
@@ -389,6 +380,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,59 +685,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9DCC31-A773-452B-B78B-8DC4B741D10A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <f ca="1">B2+C2</f>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +762,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -787,381 +780,381 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <f ca="1">RAND()*1000</f>
-        <v>895.12627170796577</v>
+        <v>610.60629240686671</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A2,$A$2:$A$20)+1</f>
-        <v>18</v>
+        <f t="shared" ref="B2:B20" ca="1" si="0">COUNT($A$2:$A$20) -RANK(A2,$A$2:$A$20)+1</f>
+        <v>14</v>
       </c>
       <c r="C2" t="str">
         <f>D2&amp;" "&amp;E2</f>
         <v>Fazle Alam</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A20" ca="1" si="0">RAND()*1000</f>
-        <v>329.50778043834316</v>
+        <f t="shared" ref="A3:A20" ca="1" si="1">RAND()*1000</f>
+        <v>742.38232845151242</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A3,$A$2:$A$20)+1</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C20" si="1">D3&amp;" "&amp;E3</f>
+        <f t="shared" ref="C3:C20" si="2">D3&amp;" "&amp;E3</f>
         <v>Jeffrey Aurelien</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>515.70898919785873</v>
+      </c>
+      <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>943.51815021689515</v>
-      </c>
-      <c r="B4" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A4,$A$2:$A$20)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="2"/>
+        <v>Brittney Barrow</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="1"/>
-        <v>Brittney Barrow</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>448.39439186716555</v>
+      </c>
+      <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>472.66140059010007</v>
-      </c>
-      <c r="B5" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A5,$A$2:$A$20)+1</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Mohammad Butt</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>549.06327338261542</v>
+      </c>
+      <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>720.11684905013942</v>
-      </c>
-      <c r="B6" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A6,$A$2:$A$20)+1</f>
         <v>13</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Janai Correia</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>243.87103063351577</v>
+      </c>
+      <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>59.629712327623594</v>
-      </c>
-      <c r="B7" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A7,$A$2:$A$20)+1</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Jasmine Henry</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>890.41210942270106</v>
+      </c>
+      <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>151.69087734630625</v>
-      </c>
-      <c r="B8" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A8,$A$2:$A$20)+1</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Jahed Hossain</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>229.3046667636246</v>
+      </c>
+      <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>821.22748645337492</v>
-      </c>
-      <c r="B9" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A9,$A$2:$A$20)+1</f>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Taulant Ilazi</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>398.34095725222039</v>
+      </c>
+      <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>676.04210769669567</v>
-      </c>
-      <c r="B10" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A10,$A$2:$A$20)+1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Requya Khaled</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>963.13804318148743</v>
+      </c>
+      <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>388.53176115362862</v>
-      </c>
-      <c r="B11" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A11,$A$2:$A$20)+1</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Liling Liu</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>358.29221117182607</v>
+      </c>
+      <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>752.21950618350809</v>
-      </c>
-      <c r="B12" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A12,$A$2:$A$20)+1</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Ka Ling Ng Fang</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>129.86075118870443</v>
+      </c>
+      <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>234.09140375912963</v>
-      </c>
-      <c r="B13" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A13,$A$2:$A$20)+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Michael O'Neill</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>91.865786135037268</v>
+      </c>
+      <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>285.65498353731431</v>
-      </c>
-      <c r="B14" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A14,$A$2:$A$20)+1</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Dijon Preville</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>387.38785172502213</v>
+      </c>
+      <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.852906263887359</v>
-      </c>
-      <c r="B15" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A15,$A$2:$A$20)+1</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Riley Qiu</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>166.5744232566002</v>
+      </c>
+      <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>523.2207426568433</v>
-      </c>
-      <c r="B16" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A16,$A$2:$A$20)+1</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Harinder Singh</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>56.562540858174806</v>
+      </c>
+      <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>356.70838771874594</v>
-      </c>
-      <c r="B17" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A17,$A$2:$A$20)+1</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Humna Tahir</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>719.67513654085133</v>
+      </c>
+      <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>829.26911607534487</v>
-      </c>
-      <c r="B18" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A18,$A$2:$A$20)+1</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Iqra Tariq</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>337.83512379000013</v>
+      </c>
+      <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>768.46877291542216</v>
-      </c>
-      <c r="B19" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A19,$A$2:$A$20)+1</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Zakia Trisha</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>682.1162467679336</v>
+      </c>
+      <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>690.31256571001916</v>
-      </c>
-      <c r="B20" s="2">
-        <f ca="1">COUNT($A$2:$A$20) -RANK(A20,$A$2:$A$20)+1</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Evan Watts</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1170,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1189,7 +1182,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1200,214 +1193,214 @@
     </row>
     <row r="2" spans="1:5" ht="26.15" x14ac:dyDescent="0.7">
       <c r="A2" s="1">
-        <v>94.059410825569017</v>
+        <v>270.7671009752338</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>769.75514086371436</v>
+        <v>10.67543518154368</v>
       </c>
       <c r="B3" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>856.16041619511907</v>
+        <v>612.20731617176818</v>
       </c>
       <c r="B4" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>910.74786036936564</v>
+        <v>434.8475830580191</v>
       </c>
       <c r="B5" s="2">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>834.87390625247247</v>
+        <v>901.46203323598741</v>
       </c>
       <c r="B6" s="2">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>314.27261636363926</v>
+        <v>366.26589576446298</v>
       </c>
       <c r="B7" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>880.79879780337069</v>
+        <v>628.08521616770327</v>
       </c>
       <c r="B8" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>43.577256741746396</v>
+        <v>476.98089246898689</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>909.12606820961776</v>
+        <v>38.684041718550667</v>
       </c>
       <c r="B10" s="2">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>643.37909650493464</v>
+        <v>349.53370010922958</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>173.79877597336147</v>
+        <v>119.37115958119971</v>
       </c>
       <c r="B12" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>230.23697477304572</v>
+        <v>809.73618602649935</v>
       </c>
       <c r="B13" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>274.43744751036104</v>
+        <v>163.72263758990437</v>
       </c>
       <c r="B14" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>65.182292479000537</v>
+        <v>862.24866092955608</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>987.32496383123362</v>
+        <v>471.24503284701092</v>
       </c>
       <c r="B16" s="2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>795.82450270552943</v>
+        <v>903.89391923283381</v>
       </c>
       <c r="B17" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>168.83846414267646</v>
+        <v>311.18773147497814</v>
       </c>
       <c r="B18" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
-        <v>612.4923363829206</v>
+        <v>534.76485335448137</v>
       </c>
       <c r="B19" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
-        <v>734.36688791444305</v>
+        <v>33.287459101366657</v>
       </c>
       <c r="B20" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1428,8 +1421,8 @@
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1443,19 +1436,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
@@ -1470,10 +1463,10 @@
       </c>
       <c r="D2" s="9" t="str">
         <f>VLOOKUP(A2,'Final Order'!B:C,2,0)</f>
-        <v>Taulant Ilazi</v>
+        <v>Jeffrey Aurelien</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1488,10 +1481,10 @@
       </c>
       <c r="D3" s="9" t="str">
         <f>VLOOKUP(A3,'Final Order'!B:C,2,0)</f>
-        <v>Riley Qiu</v>
+        <v>Evan Watts</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1506,10 +1499,10 @@
       </c>
       <c r="D4" s="9" t="str">
         <f>VLOOKUP(A4,'Final Order'!B:C,2,0)</f>
-        <v>Fazle Alam</v>
+        <v>Requya Khaled</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -1524,10 +1517,10 @@
       </c>
       <c r="D5" s="9" t="str">
         <f>VLOOKUP(A5,'Final Order'!B:C,2,0)</f>
-        <v>Iqra Tariq</v>
+        <v>Ka Ling Ng Fang</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -1542,10 +1535,10 @@
       </c>
       <c r="D6" s="9" t="str">
         <f>VLOOKUP(A6,'Final Order'!B:C,2,0)</f>
-        <v>Ka Ling Ng Fang</v>
+        <v>Dijon Preville</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1560,10 +1553,10 @@
       </c>
       <c r="D7" s="9" t="str">
         <f>VLOOKUP(A7,'Final Order'!B:C,2,0)</f>
-        <v>Michael O'Neill</v>
+        <v>Fazle Alam</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1578,10 +1571,10 @@
       </c>
       <c r="D8" s="9" t="str">
         <f>VLOOKUP(A8,'Final Order'!B:C,2,0)</f>
-        <v>Dijon Preville</v>
+        <v>Iqra Tariq</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1596,10 +1589,10 @@
       </c>
       <c r="D9" s="9" t="str">
         <f>VLOOKUP(A9,'Final Order'!B:C,2,0)</f>
-        <v>Jasmine Henry</v>
+        <v>Liling Liu</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -1614,10 +1607,10 @@
       </c>
       <c r="D10" s="9" t="str">
         <f>VLOOKUP(A10,'Final Order'!B:C,2,0)</f>
-        <v>Zakia Trisha</v>
+        <v>Jasmine Henry</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
@@ -1632,10 +1625,10 @@
       </c>
       <c r="D11" s="9" t="str">
         <f>VLOOKUP(A11,'Final Order'!B:C,2,0)</f>
-        <v>Liling Liu</v>
+        <v>Mohammad Butt</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
@@ -1650,10 +1643,10 @@
       </c>
       <c r="D12" s="9" t="str">
         <f>VLOOKUP(A12,'Final Order'!B:C,2,0)</f>
-        <v>Evan Watts</v>
+        <v>Harinder Singh</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
@@ -1668,10 +1661,10 @@
       </c>
       <c r="D13" s="9" t="str">
         <f>VLOOKUP(A13,'Final Order'!B:C,2,0)</f>
-        <v>Jeffrey Aurelien</v>
+        <v>Taulant Ilazi</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
@@ -1686,10 +1679,10 @@
       </c>
       <c r="D14" s="9" t="str">
         <f>VLOOKUP(A14,'Final Order'!B:C,2,0)</f>
-        <v>Humna Tahir</v>
+        <v>Zakia Trisha</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
@@ -1704,10 +1697,10 @@
       </c>
       <c r="D15" s="9" t="str">
         <f>VLOOKUP(A15,'Final Order'!B:C,2,0)</f>
-        <v>Janai Correia</v>
+        <v>Brittney Barrow</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
@@ -1722,10 +1715,10 @@
       </c>
       <c r="D16" s="9" t="str">
         <f>VLOOKUP(A16,'Final Order'!B:C,2,0)</f>
-        <v>Brittney Barrow</v>
+        <v>Jahed Hossain</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1740,10 +1733,10 @@
       </c>
       <c r="D17" s="9" t="str">
         <f>VLOOKUP(A17,'Final Order'!B:C,2,0)</f>
-        <v>Jahed Hossain</v>
+        <v>Michael O'Neill</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1758,10 +1751,10 @@
       </c>
       <c r="D18" s="9" t="str">
         <f>VLOOKUP(A18,'Final Order'!B:C,2,0)</f>
-        <v>Requya Khaled</v>
+        <v>Riley Qiu</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
@@ -1776,10 +1769,10 @@
       </c>
       <c r="D19" s="9" t="str">
         <f>VLOOKUP(A19,'Final Order'!B:C,2,0)</f>
-        <v>Mohammad Butt</v>
+        <v>Janai Correia</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
@@ -1794,10 +1787,10 @@
       </c>
       <c r="D20" s="9" t="str">
         <f>VLOOKUP(A20,'Final Order'!B:C,2,0)</f>
-        <v>Harinder Singh</v>
+        <v>Humna Tahir</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
